--- a/dev/notebook/top-Zi-Frequency.xlsx
+++ b/dev/notebook/top-Zi-Frequency.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="t_ele_zi_export" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="1521">
   <si>
     <t xml:space="preserve">zi</t>
   </si>
@@ -5756,12 +5756,12 @@
   </sheetPr>
   <dimension ref="A1:W423"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F149" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C280" activeCellId="0" sqref="C280"/>
+      <selection pane="bottomLeft" activeCell="A149" activeCellId="0" sqref="A149"/>
+      <selection pane="bottomRight" activeCell="C280" activeCellId="1" sqref="I12:I13 C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20027,7 +20027,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="I28" activeCellId="1" sqref="I12:I13 I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20101,7 +20101,9 @@
       <c r="H2" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="2" t="n">
         <v>4</v>
       </c>
@@ -20116,6 +20118,9 @@
       <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="2" t="n">
         <v>3</v>
       </c>
@@ -20128,7 +20133,9 @@
       <c r="H3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="2" t="n">
         <v>4</v>
       </c>
@@ -20143,6 +20150,9 @@
       <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
@@ -20155,7 +20165,9 @@
       <c r="H4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="2" t="n">
         <v>4</v>
       </c>
@@ -20202,6 +20214,9 @@
       <c r="C6" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="2" t="n">
         <v>4</v>
       </c>
@@ -20214,12 +20229,14 @@
       <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -20228,6 +20245,9 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
@@ -20258,6 +20278,9 @@
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="2" t="n">
         <v>7</v>
       </c>
@@ -20302,7 +20325,9 @@
       <c r="H9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="2" t="n">
         <v>4</v>
       </c>
@@ -20317,6 +20342,9 @@
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
@@ -20329,7 +20357,9 @@
       <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="2" t="n">
         <v>3</v>
       </c>
@@ -20376,6 +20406,9 @@
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="2" t="n">
         <v>2</v>
       </c>
@@ -20388,7 +20421,9 @@
       <c r="H12" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="2" t="n">
         <v>5</v>
       </c>
@@ -20418,7 +20453,9 @@
       <c r="H13" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="2" t="n">
         <v>3</v>
       </c>
@@ -20497,6 +20534,9 @@
       <c r="C16" s="6" t="s">
         <v>373</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="2" t="n">
         <v>7</v>
       </c>
@@ -20541,7 +20581,9 @@
       <c r="H17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="2" t="n">
         <v>6</v>
       </c>
@@ -20556,6 +20598,9 @@
       <c r="C18" s="6" t="s">
         <v>214</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="2" t="n">
         <v>3</v>
       </c>
@@ -20568,7 +20613,9 @@
       <c r="H18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="2" t="n">
         <v>6</v>
       </c>
@@ -20583,6 +20630,9 @@
       <c r="C19" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="2" t="n">
         <v>6</v>
       </c>
@@ -20595,7 +20645,9 @@
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="2" t="n">
         <v>5</v>
       </c>
@@ -20610,6 +20662,9 @@
       <c r="C20" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
@@ -20629,7 +20684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>236</v>
       </c>
@@ -20654,12 +20709,14 @@
       <c r="H21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>171</v>
       </c>
@@ -20684,12 +20741,14 @@
       <c r="H22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -20699,6 +20758,9 @@
       <c r="C23" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E23" s="2" t="n">
         <v>4</v>
       </c>
@@ -20711,7 +20773,9 @@
       <c r="H23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J23" s="2" t="n">
         <v>6</v>
       </c>
@@ -20726,6 +20790,9 @@
       <c r="C24" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="2" t="n">
         <v>4</v>
       </c>
@@ -20738,7 +20805,9 @@
       <c r="H24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="2" t="n">
         <v>1</v>
       </c>
@@ -20753,6 +20822,9 @@
       <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="2" t="n">
         <v>4</v>
       </c>
@@ -20765,12 +20837,14 @@
       <c r="H25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>228</v>
       </c>
@@ -20780,6 +20854,9 @@
       <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
@@ -20792,7 +20869,9 @@
       <c r="H26" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J26" s="2" t="n">
         <v>2</v>
       </c>
@@ -20807,6 +20886,9 @@
       <c r="C27" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
@@ -20819,7 +20901,9 @@
       <c r="H27" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J27" s="2" t="n">
         <v>4</v>
       </c>
@@ -20968,12 +21052,12 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L30" activeCellId="0" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21022,7 +21106,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -21047,12 +21131,14 @@
       <c r="H2" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>70</v>
       </c>
@@ -21062,6 +21148,9 @@
       <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E3" s="2" t="n">
         <v>3</v>
       </c>
@@ -21074,12 +21163,14 @@
       <c r="H3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>233</v>
       </c>
@@ -21089,6 +21180,9 @@
       <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
@@ -21101,7 +21195,9 @@
       <c r="H4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="2" t="n">
         <v>4</v>
       </c>
@@ -21138,7 +21234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>125</v>
       </c>
@@ -21148,6 +21244,9 @@
       <c r="C6" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="2" t="n">
         <v>4</v>
       </c>
@@ -21160,12 +21259,14 @@
       <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -21175,6 +21276,9 @@
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="2" t="n">
         <v>3</v>
       </c>
@@ -21194,7 +21298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>298</v>
       </c>
@@ -21204,6 +21308,9 @@
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="2" t="n">
         <v>7</v>
       </c>
@@ -21223,7 +21330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>106</v>
       </c>
@@ -21248,12 +21355,14 @@
       <c r="H9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>128</v>
       </c>
@@ -21263,6 +21372,9 @@
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="2" t="n">
         <v>5</v>
       </c>
@@ -21275,7 +21387,9 @@
       <c r="H10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="2" t="n">
         <v>3</v>
       </c>
@@ -21312,7 +21426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>150</v>
       </c>
@@ -21322,6 +21436,9 @@
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="2" t="n">
         <v>2</v>
       </c>
@@ -21334,12 +21451,14 @@
       <c r="H12" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>182</v>
       </c>
@@ -21364,7 +21483,9 @@
       <c r="H13" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="2" t="n">
         <v>3</v>
       </c>
@@ -21433,7 +21554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>139</v>
       </c>
@@ -21443,6 +21564,9 @@
       <c r="C16" s="6" t="s">
         <v>373</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E16" s="2" t="n">
         <v>7</v>
       </c>
@@ -21462,7 +21586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>213</v>
       </c>
@@ -21487,12 +21611,14 @@
       <c r="H17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>194</v>
       </c>
@@ -21502,6 +21628,9 @@
       <c r="C18" s="6" t="s">
         <v>214</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="2" t="n">
         <v>3</v>
       </c>
@@ -21514,12 +21643,14 @@
       <c r="H18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>216</v>
       </c>
@@ -21529,6 +21660,9 @@
       <c r="C19" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="2" t="n">
         <v>6</v>
       </c>
@@ -21541,12 +21675,14 @@
       <c r="H19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>133</v>
       </c>
@@ -21556,6 +21692,9 @@
       <c r="C20" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="2" t="n">
         <v>5</v>
       </c>
@@ -21575,7 +21714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>236</v>
       </c>
@@ -21600,12 +21739,14 @@
       <c r="H21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>171</v>
       </c>
@@ -21630,12 +21771,14 @@
       <c r="H22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>92</v>
       </c>
@@ -21645,6 +21788,9 @@
       <c r="C23" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E23" s="2" t="n">
         <v>4</v>
       </c>
@@ -21657,12 +21803,14 @@
       <c r="H23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J23" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>186</v>
       </c>
@@ -21672,6 +21820,9 @@
       <c r="C24" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="2" t="n">
         <v>4</v>
       </c>
@@ -21684,12 +21835,14 @@
       <c r="H24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>208</v>
       </c>
@@ -21699,6 +21852,9 @@
       <c r="C25" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E25" s="2" t="n">
         <v>4</v>
       </c>
@@ -21711,12 +21867,14 @@
       <c r="H25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>228</v>
       </c>
@@ -21726,6 +21884,9 @@
       <c r="C26" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="2" t="n">
         <v>5</v>
       </c>
@@ -21738,12 +21899,14 @@
       <c r="H26" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J26" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>203</v>
       </c>
@@ -21753,6 +21916,9 @@
       <c r="C27" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E27" s="2" t="n">
         <v>2</v>
       </c>
@@ -21765,7 +21931,9 @@
       <c r="H27" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J27" s="2" t="n">
         <v>4</v>
       </c>
@@ -21915,16 +22083,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="I12:I13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="103.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="103.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="16" t="s">
         <v>1520</v>
       </c>
     </row>
